--- a/data/trans_bre/P51_N_R1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P51_N_R1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-13,69%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-27,43%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>31,08%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-12,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3355679947411871</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8131993133124695</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.421136330758649</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.118309772666349</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5501887656193721</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5.086781756760139</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-1.533672784335316</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02432866922147071</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.08055828217084064</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.1174977383140804</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.2770511967346229</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.03136302858198676</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.3257950799634939</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.126431968636658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 3,63</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 4,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 1,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 0,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 4,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 9,05</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 3,2</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,01; 33,51</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-27,37; 58,61</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-42,82; 16,79</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-58,96; 8,51</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; 30,85</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 66,01</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-54,35; 39,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.18048284401805</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.735334591754201</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.601607332897885</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.277193963447816</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.22234157868243</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.7895923654811325</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-10.72090801038715</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.310100444559935</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2752778657566574</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4131243172792946</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.5688955349675533</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1640962239833025</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.0362651486345466</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.543999919590445</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.633466073281256</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.684501587709923</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.960633232264025</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.4405376624434297</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.807844943190802</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.132735834937506</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.287855851952468</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3350545633000711</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6097593202176442</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1973407206595071</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.09306980961828709</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.3085209792907674</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.6783678312081146</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.3907826190122928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>41,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>42,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>11,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-8,1%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>15,46%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>29,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 7,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 8,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 4,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 4,06</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 8,58</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 8,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 8,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 125,31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 139,98</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-27,97; 62,91</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-40,89; 46,85</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-31,3; 75,1</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-29,89; 87,09</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-22,89; 107,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.301149966481011</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.012775500116004</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9218840361840008</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.9757812414102895</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.64909038663788</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1.639536937834368</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2.919128578234349</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4137637154157401</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3346552716298575</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1060825948235754</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.08108671504490524</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.1132919317719807</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.1266994246847956</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.2871802978375187</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-9,89</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>31,34%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-16,6%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>-82,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5693921900369248</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.446306885267874</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.960739570330513</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.862435791994196</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.964294159961947</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-4.883749537975006</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-2.643247141796434</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.09968500754323517</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2269727736075199</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2826595162699312</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4054853557570294</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3130288643304396</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.312618656236782</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.2458205340628591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 7,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,81; 11,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 5,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,63; 6,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; -4,07</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-75,32; 177,75</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-70,37; 277,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-77,8; 102,55</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-76,97; 214,39</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>-95,69; -39,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.922696104830103</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.712283492513425</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.390646817540304</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.792939670647092</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.582780591585641</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.841144751066602</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8.314686359591771</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.253120447086195</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.212650912191474</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.6475076198629159</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.4340614799059917</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.7510481513836331</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.8418362562338803</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.053402722408354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,61%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>24,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-5,45%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-17,13%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>28,79%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-6,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2768284691130704</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.228612637940409</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.034788830950004</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7251354824120121</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>-9.504838462428424</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.0305634788668531</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3242082616054935</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1108371293388934</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.09248316830047057</v>
+      </c>
+      <c r="N10" s="6" t="inlineStr"/>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="n">
+        <v>-0.8248678555548876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 4,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 5,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 1,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 1,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 4,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 7,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 2,45</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; 43,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 71,22</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-30,66; 19,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-40,1; 11,04</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 27,86</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 61,39</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-36,69; 27,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.19949969495044</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.79440459300275</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.37498070434454</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.56459839105393</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
+        <v>-17.16643583831499</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7532164094824815</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6840531797755739</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7290740170822794</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.7500701609723838</v>
+      </c>
+      <c r="N11" s="6" t="inlineStr"/>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="n">
+        <v>-0.9571546985801238</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.20322124058224</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.06824848970241</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.50264072768053</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.893284148000632</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="n">
+        <v>-3.894965698071455</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.777475919777855</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.606920882519467</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.132257641382619</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>2.405284836160866</v>
+      </c>
+      <c r="N12" s="6" t="inlineStr"/>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="n">
+        <v>-0.3614771654507936</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.262289791631506</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.951760451517566</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.3943377921203431</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.844999678570573</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8578119521698624</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>4.384755532144135</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.6874031638792855</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1160704596397092</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2024078987062623</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.03793443406448142</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.165492021758816</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.05097788978433584</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.2930067495664771</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.06101493709353077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.989280467088585</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.451889887170456</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.542464195982752</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.503629266481744</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.271969828273606</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.9357926248292909</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-5.516803386107235</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1565094985717431</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1380955233572169</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2872046304046643</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.3880768975685759</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1229498452342381</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.05348235499551154</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.3638904736347314</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.025955275186478</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.899102011725452</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.928358492436152</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.060789583220724</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.294684262822686</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.985707930563986</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.458204324275649</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4382527351707289</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.649417508117031</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2171734801930127</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1091575508908958</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2785863395595237</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.6268616332270713</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.2749657354195789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
